--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.Documentation/eFMS.API.Documentation/Resources/Files/LogisticsImportChargeTemplate.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.Documentation/eFMS.API.Documentation/Resources/Files/LogisticsImportChargeTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.phuong\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel.an\Desktop\eFMS\WebAPI\eFMS.API.SystemWeb\eFMS.API.Documentation\eFMS.API.Documentation\Resources\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,42 +29,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
-    <t>HBL</t>
-  </si>
-  <si>
-    <t>MBL</t>
-  </si>
-  <si>
     <t>Custom No</t>
   </si>
   <si>
-    <t>Charge Code</t>
-  </si>
-  <si>
-    <t>Partner Code</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Unit Price</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>VAT</t>
-  </si>
-  <si>
-    <t>Exchange Date</t>
-  </si>
-  <si>
-    <t>Final Exchange</t>
-  </si>
-  <si>
     <t>Invoice Date</t>
   </si>
   <si>
@@ -74,9 +41,6 @@
     <t>Serie No</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
@@ -98,13 +62,218 @@
     <t>VND</t>
   </si>
   <si>
-    <t>Total Amount</t>
-  </si>
-  <si>
     <t>IVN0212321</t>
   </si>
   <si>
     <t>SR00123</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HBL </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Type </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MBL </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Partner Code </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Charge Code </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Qty </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unit </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Currency </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">VAT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Total Amount </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exchange Date </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Final Exchange </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unit Price </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -114,7 +283,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +302,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,7 +359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -185,6 +370,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -469,86 +655,88 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="P1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="4">
         <v>2000020</v>
@@ -557,19 +745,19 @@
         <v>2342342</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="H2" s="8">
         <v>1000000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J2" s="2">
         <v>10</v>
@@ -582,16 +770,16 @@
         <v>23270</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="O2" s="9">
         <v>44210</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="R2" s="2"/>
     </row>

--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.Documentation/eFMS.API.Documentation/Resources/Files/LogisticsImportChargeTemplate.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.Documentation/eFMS.API.Documentation/Resources/Files/LogisticsImportChargeTemplate.xlsx
@@ -655,7 +655,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,6 +673,7 @@
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">

--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.Documentation/eFMS.API.Documentation/Resources/Files/LogisticsImportChargeTemplate.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.Documentation/eFMS.API.Documentation/Resources/Files/LogisticsImportChargeTemplate.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Custom No</t>
   </si>
@@ -198,22 +198,6 @@
   <si>
     <r>
       <t xml:space="preserve">VAT </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(*)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Total Amount </t>
     </r>
     <r>
       <rPr>
@@ -652,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,15 +652,14 @@
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -699,7 +682,7 @@
         <v>19</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>20</v>
@@ -714,25 +697,22 @@
         <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -763,26 +743,25 @@
       <c r="J2" s="2">
         <v>10</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="9">
+      <c r="K2" s="9">
         <v>44210</v>
       </c>
-      <c r="M2" s="2">
+      <c r="L2" s="2">
         <v>23270</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="9">
+      <c r="N2" s="9">
         <v>44210</v>
       </c>
+      <c r="O2" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="P2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="2"/>
+      <c r="Q2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.Documentation/eFMS.API.Documentation/Resources/Files/LogisticsImportChargeTemplate.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.Documentation/eFMS.API.Documentation/Resources/Files/LogisticsImportChargeTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel.an\Desktop\eFMS\WebAPI\eFMS.API.SystemWeb\eFMS.API.Documentation\eFMS.API.Documentation\Resources\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lynne.loc\Desktop\eFMSSource\WebAPI\eFMS.API.SystemWeb\eFMS.API.Documentation\eFMS.API.Documentation\Resources\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Custom No</t>
   </si>
@@ -258,6 +258,12 @@
       </rPr>
       <t>(*)</t>
     </r>
+  </si>
+  <si>
+    <t>OBH Partner</t>
+  </si>
+  <si>
+    <t>26784508</t>
   </si>
 </sst>
 </file>
@@ -636,30 +642,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -673,46 +678,49 @@
         <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -726,42 +734,45 @@
         <v>2342342</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="8">
+      <c r="I2" s="8">
         <v>1000000</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>10</v>
       </c>
-      <c r="K2" s="9">
+      <c r="L2" s="9">
         <v>44210</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>23270</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="9">
+      <c r="O2" s="9">
         <v>44210</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.Documentation/eFMS.API.Documentation/Resources/Files/LogisticsImportChargeTemplate.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.Documentation/eFMS.API.Documentation/Resources/Files/LogisticsImportChargeTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lynne.loc\Desktop\eFMSSource\WebAPI\eFMS.API.SystemWeb\eFMS.API.Documentation\eFMS.API.Documentation\Resources\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eFMS-WebApp\WebAPI\eFMS.API.SystemWeb\eFMS.API.Documentation\eFMS.API.Documentation\Resources\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Custom No</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>26784508</t>
+  </si>
+  <si>
+    <t>VAT Partner</t>
   </si>
 </sst>
 </file>
@@ -642,29 +645,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -696,31 +702,34 @@
         <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -751,28 +760,29 @@
       <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2">
         <v>10</v>
       </c>
-      <c r="L2" s="9">
+      <c r="M2" s="9">
         <v>44210</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>23270</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="9">
+      <c r="P2" s="9">
         <v>44210</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
